--- a/19 Otros artículos publicados.xlsx
+++ b/19 Otros artículos publicados.xlsx
@@ -22,10 +22,10 @@
     <t>Nombre del Grupo</t>
   </si>
   <si>
-    <t>Ciencia y Tecnología de Biomoléculas de Interés Agroindustrial - CYTBIA</t>
+    <t>Biodiversidad, biotecnología y conservación de ecosistemas</t>
   </si>
   <si>
-    <t>5.- Revista de divulgación : Usos de cartas de control para el análisis de calidad en manufactura de sacos de polipropileno  Chile, Actualidad Iberoamericana ISSN: 0717-3636, 2007 vol:10 fasc: págs: 17 - Autores: SILVIO ANDRES MOSQUERA SANCHEZ, JENNY FLOR CABRERA, JHON JAIRO NARVAEZ</t>
+    <t>2.- Revista de divulgación : Algas microscópicas crecen en esferas de gel y ayudan en el monitoreo ambiental de lagos de agua dulce  Colombia, Bioika ISSN: 2619-3191, 2018 vol:2 fasc: págs: 1 - 5  Autores: GABRIEL ANTONIO PINILLA AGUDELO, LUIS CARLOS MONTENEGRO RUIZ, LUZ MARINA MELGAREJO MUNOZ, ALFONSO PINEDA BARBOSA</t>
   </si>
 </sst>
 </file>
